--- a/app/webroot/docs/form.xlsx
+++ b/app/webroot/docs/form.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Полное наименование ВУЗа:</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Запасной</t>
+  </si>
+  <si>
+    <t>Факультет\группа</t>
+  </si>
+  <si>
+    <t>№ студенческого билета</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,17 +157,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -173,27 +168,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -202,16 +194,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -518,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,46 +519,54 @@
     <col min="1" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,144 +588,175 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="4" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="4" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="13"/>
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="13"/>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="4" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="13"/>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="13"/>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="13"/>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="13"/>
+      <c r="J14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H15" s="4" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+      <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="4" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+      <c r="J17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="13"/>
+      <c r="J18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="13"/>
+      <c r="J19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="13"/>
+      <c r="J20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="13"/>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="13"/>
+      <c r="J22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="13"/>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -735,21 +764,23 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A24:H24"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
